--- a/category.xlsx
+++ b/category.xlsx
@@ -1075,12 +1075,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,8 +1171,36 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1185,7 +1213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1477,10 +1505,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="3" bestFit="1" customWidth="1"/>
@@ -1494,7 +1522,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="27">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
@@ -1523,7 +1551,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>62</v>
       </c>
@@ -1549,7 +1577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>17</v>
       </c>
@@ -1575,7 +1603,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>18</v>
       </c>
@@ -1601,7 +1629,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>19</v>
       </c>
@@ -1627,7 +1655,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -1653,7 +1681,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>21</v>
       </c>
@@ -1679,7 +1707,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>26</v>
       </c>
@@ -1705,7 +1733,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>29</v>
       </c>
@@ -1731,7 +1759,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -1757,7 +1785,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>34</v>
       </c>
@@ -1783,7 +1811,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>35</v>
       </c>
@@ -1809,7 +1837,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>36</v>
       </c>
@@ -1835,7 +1863,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>37</v>
       </c>
@@ -1861,7 +1889,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>39</v>
       </c>
@@ -1887,7 +1915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>43</v>
       </c>
@@ -1913,7 +1941,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>46</v>
       </c>
@@ -1939,7 +1967,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>47</v>
       </c>
@@ -1965,7 +1993,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>48</v>
       </c>
@@ -1991,7 +2019,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>50</v>
       </c>
@@ -2017,7 +2045,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>51</v>
       </c>
@@ -2043,7 +2071,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>52</v>
       </c>
@@ -2069,7 +2097,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>53</v>
       </c>
@@ -2095,7 +2123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>54</v>
       </c>
@@ -2121,7 +2149,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>55</v>
       </c>
@@ -2147,7 +2175,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>56</v>
       </c>
@@ -2173,7 +2201,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>57</v>
       </c>
@@ -2199,7 +2227,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>58</v>
       </c>
@@ -2225,7 +2253,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>59</v>
       </c>
@@ -2251,7 +2279,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>60</v>
       </c>
@@ -2277,7 +2305,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>61</v>
       </c>
@@ -2303,7 +2331,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>67</v>
       </c>
@@ -2329,7 +2357,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>79</v>
       </c>
@@ -2355,7 +2383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>81</v>
       </c>
@@ -2381,7 +2409,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>82</v>
       </c>
@@ -2407,7 +2435,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>83</v>
       </c>
@@ -2433,7 +2461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>84</v>
       </c>
@@ -2459,7 +2487,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>85</v>
       </c>
@@ -2485,7 +2513,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>97</v>
       </c>
@@ -2511,7 +2539,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>99</v>
       </c>
@@ -2537,7 +2565,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>100</v>
       </c>
@@ -2563,7 +2591,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>101</v>
       </c>
@@ -2589,7 +2617,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>102</v>
       </c>
@@ -2615,7 +2643,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>103</v>
       </c>
@@ -2641,7 +2669,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>104</v>
       </c>
@@ -2667,7 +2695,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -2693,7 +2721,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>106</v>
       </c>
@@ -2719,7 +2747,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>107</v>
       </c>
@@ -2745,7 +2773,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>108</v>
       </c>
@@ -2771,7 +2799,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>109</v>
       </c>
@@ -2797,7 +2825,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>110</v>
       </c>
@@ -2823,7 +2851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>111</v>
       </c>
@@ -2849,7 +2877,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>112</v>
       </c>
@@ -2875,7 +2903,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>116</v>
       </c>
@@ -2901,7 +2929,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>117</v>
       </c>
@@ -2927,7 +2955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>124</v>
       </c>
@@ -2953,7 +2981,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>125</v>
       </c>
@@ -2979,7 +3007,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>126</v>
       </c>
@@ -3005,7 +3033,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>127</v>
       </c>
@@ -3031,7 +3059,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>128</v>
       </c>
@@ -3057,7 +3085,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>129</v>
       </c>
@@ -3083,7 +3111,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>130</v>
       </c>
@@ -3109,7 +3137,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>131</v>
       </c>
@@ -3135,7 +3163,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>22</v>
       </c>
@@ -3161,7 +3189,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -3187,7 +3215,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>72</v>
       </c>
@@ -3213,7 +3241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>118</v>
       </c>
@@ -3239,7 +3267,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>24</v>
       </c>
@@ -3265,7 +3293,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>6</v>
       </c>
@@ -3291,7 +3319,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>7</v>
       </c>
@@ -3317,7 +3345,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -3343,7 +3371,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -3369,7 +3397,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>10</v>
       </c>
@@ -3395,7 +3423,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>11</v>
       </c>
@@ -3421,7 +3449,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="34.5" customHeight="1">
+    <row r="75" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>12</v>
       </c>
@@ -3447,7 +3475,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>13</v>
       </c>
@@ -3473,7 +3501,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>14</v>
       </c>
@@ -3499,7 +3527,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>16</v>
       </c>
@@ -3525,7 +3553,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="34.5" customHeight="1">
+    <row r="79" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>23</v>
       </c>
@@ -3551,7 +3579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>49</v>
       </c>
@@ -3577,7 +3605,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -3603,7 +3631,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>64</v>
       </c>
@@ -3629,7 +3657,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>66</v>
       </c>
@@ -3655,7 +3683,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>68</v>
       </c>
@@ -3681,7 +3709,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>69</v>
       </c>
@@ -3707,7 +3735,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>70</v>
       </c>
@@ -3733,7 +3761,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>71</v>
       </c>
@@ -3759,7 +3787,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>73</v>
       </c>
@@ -3785,7 +3813,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>74</v>
       </c>
@@ -3811,7 +3839,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>75</v>
       </c>
@@ -3837,7 +3865,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>76</v>
       </c>
@@ -3863,7 +3891,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>77</v>
       </c>
@@ -3889,7 +3917,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>78</v>
       </c>
@@ -3915,7 +3943,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>86</v>
       </c>
@@ -3941,7 +3969,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="40.5" customHeight="1">
+    <row r="95" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>87</v>
       </c>
@@ -3967,7 +3995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>98</v>
       </c>
@@ -3993,7 +4021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="27">
+    <row r="97" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>120</v>
       </c>
@@ -4019,7 +4047,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="27">
+    <row r="98" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>119</v>
       </c>
@@ -4045,7 +4073,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -4071,7 +4099,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -4097,7 +4125,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -4123,7 +4151,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -4149,7 +4177,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -4175,7 +4203,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>114</v>
       </c>
@@ -4201,7 +4229,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>115</v>
       </c>
@@ -4227,7 +4255,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>123</v>
       </c>
@@ -4253,7 +4281,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>121</v>
       </c>
@@ -4279,7 +4307,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>113</v>
       </c>
@@ -4305,7 +4333,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>45</v>
       </c>
@@ -4331,7 +4359,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>15</v>
       </c>
@@ -4357,7 +4385,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>25</v>
       </c>
@@ -4383,7 +4411,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>27</v>
       </c>
@@ -4409,7 +4437,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="27">
+    <row r="113" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>28</v>
       </c>
@@ -4435,7 +4463,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>31</v>
       </c>
@@ -4461,7 +4489,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>32</v>
       </c>
@@ -4487,7 +4515,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>33</v>
       </c>
@@ -4513,7 +4541,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>38</v>
       </c>
@@ -4539,7 +4567,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>40</v>
       </c>
@@ -4565,7 +4593,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>41</v>
       </c>
@@ -4591,7 +4619,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>42</v>
       </c>
@@ -4617,7 +4645,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>44</v>
       </c>
@@ -4643,7 +4671,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>96</v>
       </c>
@@ -4669,7 +4697,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>63</v>
       </c>
@@ -4695,7 +4723,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>80</v>
       </c>
@@ -4721,7 +4749,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>89</v>
       </c>
@@ -4747,7 +4775,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>90</v>
       </c>
@@ -4773,7 +4801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>91</v>
       </c>
@@ -4799,7 +4827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>92</v>
       </c>
@@ -4825,7 +4853,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>93</v>
       </c>
@@ -4851,7 +4879,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>94</v>
       </c>
@@ -4877,7 +4905,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>95</v>
       </c>
@@ -4903,7 +4931,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>122</v>
       </c>
@@ -4947,7 +4975,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4960,7 +4988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4975,19 +5003,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>

--- a/category.xlsx
+++ b/category.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="balance" sheetId="1" r:id="rId1"/>
-    <sheet name="income" sheetId="14" r:id="rId2"/>
-    <sheet name="cashflow" sheetId="15" r:id="rId3"/>
-    <sheet name="note" sheetId="16" r:id="rId4"/>
+    <sheet name="capital_structure" sheetId="17" r:id="rId2"/>
+    <sheet name="income" sheetId="14" r:id="rId3"/>
+    <sheet name="cashflow" sheetId="15" r:id="rId4"/>
+    <sheet name="note" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">balance!$A$1:$I$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">balance!$A$1:$J$132</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="393">
   <si>
     <t>total_share</t>
   </si>
@@ -964,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现金-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他应付款，暂计入WC-，open to change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1008,14 +1005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>债务-金融业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负债-长期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WC-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,18 +1058,259 @@
   </si>
   <si>
     <t>category1_wc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_wc_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncategory</t>
+  </si>
+  <si>
+    <t>uncategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minority_interests</t>
+  </si>
+  <si>
+    <t>minority_interests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC+</t>
+  </si>
+  <si>
+    <t>WC+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务-短期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资-交易性金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC-</t>
+  </si>
+  <si>
+    <t>WC-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity-</t>
+  </si>
+  <si>
+    <t>equity-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity+</t>
+  </si>
+  <si>
+    <t>equity+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppe</t>
+  </si>
+  <si>
+    <t>ppe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodwill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest_equity_investee</t>
+  </si>
+  <si>
+    <t>invest_equity_investee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest_held_for_trade</t>
+  </si>
+  <si>
+    <t>invest_held_for_trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest_available_for_sale</t>
+  </si>
+  <si>
+    <t>invest_available_for_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intangible_assets</t>
+  </si>
+  <si>
+    <t>intangible_assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability_shortterm</t>
+  </si>
+  <si>
+    <t>liability_shortterm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability_longterm</t>
+  </si>
+  <si>
+    <t>liability_longterm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_assets_all</t>
+  </si>
+  <si>
+    <t>current_assets_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_current_assets_all</t>
+  </si>
+  <si>
+    <t>non_current_assets_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets_all</t>
+  </si>
+  <si>
+    <t>assets_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_liability_all</t>
+  </si>
+  <si>
+    <t>current_liability_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_current_liability_all</t>
+  </si>
+  <si>
+    <t>non_current_liability_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability_all</t>
+  </si>
+  <si>
+    <t>liability_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_all</t>
+  </si>
+  <si>
+    <t>equity_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_shareholders_only</t>
+  </si>
+  <si>
+    <t>equity_shareholders_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability_equity_all</t>
+  </si>
+  <si>
+    <t>liability_equity_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_wc_agg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_wc_agg_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形资产和商誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intangible_goodwill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金和交易性金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability_interest_bearing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务-长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invested_capital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1355,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1149,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1165,6 +1404,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1213,7 +1458,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1499,35 +1744,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="48.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>282</v>
@@ -1539,19 +1785,22 @@
         <v>290</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>62</v>
       </c>
@@ -1571,13 +1820,16 @@
         <v>275</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>122</v>
+        <v>364</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>17</v>
       </c>
@@ -1594,16 +1846,19 @@
         <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>18</v>
       </c>
@@ -1620,16 +1875,19 @@
         <v>264</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I4" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>19</v>
       </c>
@@ -1646,16 +1904,19 @@
         <v>264</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -1672,16 +1933,19 @@
         <v>264</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>21</v>
       </c>
@@ -1698,16 +1962,19 @@
         <v>264</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>26</v>
       </c>
@@ -1724,16 +1991,19 @@
         <v>264</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I8" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>29</v>
       </c>
@@ -1750,16 +2020,19 @@
         <v>264</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -1776,16 +2049,19 @@
         <v>264</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I10" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>34</v>
       </c>
@@ -1802,16 +2078,19 @@
         <v>264</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I11" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>35</v>
       </c>
@@ -1828,16 +2107,19 @@
         <v>264</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I12" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>36</v>
       </c>
@@ -1854,16 +2136,19 @@
         <v>264</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I13" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>37</v>
       </c>
@@ -1880,16 +2165,19 @@
         <v>264</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I14" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>39</v>
       </c>
@@ -1906,16 +2194,19 @@
         <v>264</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>43</v>
       </c>
@@ -1932,16 +2223,19 @@
         <v>264</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>46</v>
       </c>
@@ -1958,16 +2252,19 @@
         <v>264</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>47</v>
       </c>
@@ -1984,16 +2281,19 @@
         <v>264</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>48</v>
       </c>
@@ -2010,16 +2310,19 @@
         <v>264</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>50</v>
       </c>
@@ -2036,16 +2339,19 @@
         <v>264</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>51</v>
       </c>
@@ -2062,16 +2368,19 @@
         <v>264</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>52</v>
       </c>
@@ -2088,16 +2397,19 @@
         <v>264</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>53</v>
       </c>
@@ -2114,16 +2426,19 @@
         <v>264</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>54</v>
       </c>
@@ -2140,16 +2455,19 @@
         <v>264</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>55</v>
       </c>
@@ -2166,16 +2484,19 @@
         <v>264</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>56</v>
       </c>
@@ -2192,16 +2513,19 @@
         <v>264</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>57</v>
       </c>
@@ -2218,16 +2542,19 @@
         <v>264</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>58</v>
       </c>
@@ -2244,16 +2571,19 @@
         <v>264</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>59</v>
       </c>
@@ -2270,16 +2600,19 @@
         <v>264</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>60</v>
       </c>
@@ -2296,16 +2629,19 @@
         <v>264</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>61</v>
       </c>
@@ -2322,16 +2658,19 @@
         <v>264</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>67</v>
       </c>
@@ -2348,16 +2687,19 @@
         <v>264</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
         <v>79</v>
       </c>
@@ -2374,16 +2716,19 @@
         <v>264</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3">
         <v>81</v>
       </c>
@@ -2400,16 +2745,19 @@
         <v>264</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3">
         <v>82</v>
       </c>
@@ -2426,16 +2774,19 @@
         <v>264</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
         <v>83</v>
       </c>
@@ -2452,16 +2803,19 @@
         <v>264</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="3">
         <v>84</v>
       </c>
@@ -2478,16 +2832,19 @@
         <v>264</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="3">
         <v>85</v>
       </c>
@@ -2504,16 +2861,19 @@
         <v>264</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3">
         <v>97</v>
       </c>
@@ -2530,16 +2890,19 @@
         <v>264</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I39" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3">
         <v>99</v>
       </c>
@@ -2556,16 +2919,19 @@
         <v>264</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I40" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3">
         <v>100</v>
       </c>
@@ -2582,16 +2948,19 @@
         <v>264</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I41" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3">
         <v>101</v>
       </c>
@@ -2608,16 +2977,19 @@
         <v>264</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I42" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3">
         <v>102</v>
       </c>
@@ -2634,16 +3006,19 @@
         <v>264</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="3">
         <v>103</v>
       </c>
@@ -2660,16 +3035,19 @@
         <v>264</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I44" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3">
         <v>104</v>
       </c>
@@ -2686,16 +3064,19 @@
         <v>264</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H45" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -2712,16 +3093,19 @@
         <v>264</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I46" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3">
         <v>106</v>
       </c>
@@ -2738,16 +3122,19 @@
         <v>264</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I47" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3">
         <v>107</v>
       </c>
@@ -2764,16 +3151,19 @@
         <v>264</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I48" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3">
         <v>108</v>
       </c>
@@ -2790,16 +3180,19 @@
         <v>264</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I49" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="3">
         <v>109</v>
       </c>
@@ -2816,16 +3209,19 @@
         <v>264</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>110</v>
       </c>
@@ -2842,16 +3238,19 @@
         <v>264</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I51" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="3">
         <v>111</v>
       </c>
@@ -2868,16 +3267,19 @@
         <v>264</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53" s="3">
         <v>112</v>
       </c>
@@ -2894,16 +3296,19 @@
         <v>264</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" s="3">
         <v>116</v>
       </c>
@@ -2920,16 +3325,19 @@
         <v>264</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I54" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="3">
         <v>117</v>
       </c>
@@ -2946,16 +3354,19 @@
         <v>264</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I55" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="3">
         <v>124</v>
       </c>
@@ -2972,16 +3383,19 @@
         <v>264</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I56" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="3">
         <v>125</v>
       </c>
@@ -2998,16 +3412,19 @@
         <v>264</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I57" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="3">
         <v>126</v>
       </c>
@@ -3024,16 +3441,19 @@
         <v>264</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I58" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="3">
         <v>127</v>
       </c>
@@ -3050,16 +3470,19 @@
         <v>264</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I59" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="3">
         <v>128</v>
       </c>
@@ -3076,16 +3499,19 @@
         <v>264</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I60" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="3">
         <v>129</v>
       </c>
@@ -3102,16 +3528,19 @@
         <v>264</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I61" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="3">
         <v>130</v>
       </c>
@@ -3128,16 +3557,19 @@
         <v>264</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I62" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="3">
         <v>131</v>
       </c>
@@ -3154,16 +3586,19 @@
         <v>264</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I63" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="3">
         <v>22</v>
       </c>
@@ -3183,13 +3618,16 @@
         <v>269</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I64" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -3209,13 +3647,16 @@
         <v>269</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I65" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
         <v>72</v>
       </c>
@@ -3235,13 +3676,16 @@
         <v>269</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I66" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>118</v>
       </c>
@@ -3261,13 +3705,16 @@
         <v>297</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I67" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="3">
         <v>24</v>
       </c>
@@ -3287,13 +3734,16 @@
         <v>298</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I68" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="3">
         <v>6</v>
       </c>
@@ -3313,13 +3763,16 @@
         <v>294</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="H69" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>7</v>
       </c>
@@ -3336,16 +3789,19 @@
         <v>270</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I70" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -3365,13 +3821,16 @@
         <v>295</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I71" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -3391,13 +3850,16 @@
         <v>295</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="A73" s="3">
         <v>10</v>
       </c>
@@ -3417,13 +3879,16 @@
         <v>295</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I73" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="3">
         <v>11</v>
       </c>
@@ -3443,13 +3908,16 @@
         <v>295</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I74" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>12</v>
       </c>
@@ -3460,7 +3928,7 @@
         <v>23</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>265</v>
@@ -3469,13 +3937,16 @@
         <v>295</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I75" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
         <v>13</v>
       </c>
@@ -3486,7 +3957,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>270</v>
@@ -3495,13 +3966,16 @@
         <v>295</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I76" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="3">
         <v>14</v>
       </c>
@@ -3521,13 +3995,16 @@
         <v>295</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I77" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="3">
         <v>16</v>
       </c>
@@ -3538,7 +4015,7 @@
         <v>31</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>270</v>
@@ -3547,13 +4024,16 @@
         <v>295</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I78" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27">
       <c r="A79" s="3">
         <v>23</v>
       </c>
@@ -3573,13 +4053,16 @@
         <v>294</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I79" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>49</v>
       </c>
@@ -3599,13 +4082,16 @@
         <v>294</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I80" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -3625,13 +4111,16 @@
         <v>301</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>269</v>
+        <v>366</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I81" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="3">
         <v>64</v>
       </c>
@@ -3651,13 +4140,16 @@
         <v>302</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="H82" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9">
       <c r="A83" s="3">
         <v>66</v>
       </c>
@@ -3674,16 +4166,19 @@
         <v>272</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I83" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="3">
         <v>68</v>
       </c>
@@ -3700,16 +4195,19 @@
         <v>272</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I84" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="3">
         <v>69</v>
       </c>
@@ -3729,13 +4227,16 @@
         <v>296</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I85" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="3">
         <v>70</v>
       </c>
@@ -3755,13 +4256,16 @@
         <v>296</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H86" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="A87" s="3">
         <v>71</v>
       </c>
@@ -3781,13 +4285,16 @@
         <v>296</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I87" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="3">
         <v>73</v>
       </c>
@@ -3807,13 +4314,16 @@
         <v>296</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H88" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="A89" s="3">
         <v>74</v>
       </c>
@@ -3833,13 +4343,16 @@
         <v>296</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I89" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="3">
         <v>75</v>
       </c>
@@ -3859,13 +4372,16 @@
         <v>296</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I90" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="3">
         <v>76</v>
       </c>
@@ -3885,13 +4401,16 @@
         <v>302</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="H91" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9">
       <c r="A92" s="3">
         <v>77</v>
       </c>
@@ -3911,13 +4430,16 @@
         <v>296</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I92" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="3">
         <v>78</v>
       </c>
@@ -3928,7 +4450,7 @@
         <v>154</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>268</v>
@@ -3937,13 +4459,16 @@
         <v>296</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I93" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="3">
         <v>86</v>
       </c>
@@ -3963,13 +4488,16 @@
         <v>302</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I94" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="27">
       <c r="A95" s="3">
         <v>87</v>
       </c>
@@ -3980,7 +4508,7 @@
         <v>172</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>268</v>
@@ -3989,13 +4517,16 @@
         <v>296</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I95" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="3">
         <v>98</v>
       </c>
@@ -4015,13 +4546,16 @@
         <v>302</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I96" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="27">
       <c r="A97" s="3">
         <v>120</v>
       </c>
@@ -4041,13 +4575,16 @@
         <v>238</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I97" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="27">
       <c r="A98" s="3">
         <v>119</v>
       </c>
@@ -4067,13 +4604,16 @@
         <v>236</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I98" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -4093,13 +4633,16 @@
         <v>263</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I99" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -4119,13 +4662,16 @@
         <v>263</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I100" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -4145,13 +4691,16 @@
         <v>263</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I101" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -4171,13 +4720,16 @@
         <v>263</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I102" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -4197,13 +4749,16 @@
         <v>263</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I103" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="3">
         <v>114</v>
       </c>
@@ -4220,16 +4775,19 @@
         <v>262</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I104" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="3">
         <v>115</v>
       </c>
@@ -4246,16 +4804,19 @@
         <v>262</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I105" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="3">
         <v>123</v>
       </c>
@@ -4272,16 +4833,19 @@
         <v>262</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I106" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="3">
         <v>121</v>
       </c>
@@ -4301,13 +4865,16 @@
         <v>240</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>240</v>
+        <v>376</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I107" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="3">
         <v>113</v>
       </c>
@@ -4324,16 +4891,19 @@
         <v>224</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>224</v>
+        <v>370</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I108" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="3">
         <v>45</v>
       </c>
@@ -4350,16 +4920,19 @@
         <v>88</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I109" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="3">
         <v>15</v>
       </c>
@@ -4379,13 +4952,16 @@
         <v>295</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I110" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="3">
         <v>25</v>
       </c>
@@ -4402,16 +4978,19 @@
         <v>266</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I111" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="3">
         <v>27</v>
       </c>
@@ -4428,16 +5007,19 @@
         <v>266</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I112" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="27">
       <c r="A113" s="3">
         <v>28</v>
       </c>
@@ -4448,22 +5030,25 @@
         <v>55</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="H113" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I113" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9">
       <c r="A114" s="3">
         <v>31</v>
       </c>
@@ -4480,16 +5065,19 @@
         <v>266</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I114" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="3">
         <v>32</v>
       </c>
@@ -4506,16 +5094,19 @@
         <v>266</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I115" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="3">
         <v>33</v>
       </c>
@@ -4532,16 +5123,19 @@
         <v>266</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G116" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H116" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I116" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="3">
         <v>38</v>
       </c>
@@ -4558,16 +5152,19 @@
         <v>266</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I117" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="3">
         <v>40</v>
       </c>
@@ -4584,16 +5181,19 @@
         <v>266</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I118" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="3">
         <v>41</v>
       </c>
@@ -4610,16 +5210,19 @@
         <v>266</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I119" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="3">
         <v>42</v>
       </c>
@@ -4636,16 +5239,19 @@
         <v>266</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I120" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="3">
         <v>44</v>
       </c>
@@ -4662,16 +5268,19 @@
         <v>266</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I121" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="3">
         <v>96</v>
       </c>
@@ -4688,16 +5297,19 @@
         <v>190</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I122" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="3">
         <v>63</v>
       </c>
@@ -4714,16 +5326,19 @@
         <v>267</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="H123" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9">
       <c r="A124" s="3">
         <v>80</v>
       </c>
@@ -4740,16 +5355,19 @@
         <v>267</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I124" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="3">
         <v>89</v>
       </c>
@@ -4766,16 +5384,19 @@
         <v>267</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I125" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="3">
         <v>90</v>
       </c>
@@ -4792,16 +5413,19 @@
         <v>267</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I126" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="3">
         <v>91</v>
       </c>
@@ -4818,16 +5442,19 @@
         <v>267</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I127" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="3">
         <v>92</v>
       </c>
@@ -4844,16 +5471,19 @@
         <v>267</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I128" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="3">
         <v>93</v>
       </c>
@@ -4870,16 +5500,19 @@
         <v>267</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I129" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="3">
         <v>94</v>
       </c>
@@ -4896,16 +5529,19 @@
         <v>271</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I130" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="3">
         <v>95</v>
       </c>
@@ -4922,16 +5558,19 @@
         <v>267</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I131" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="3">
         <v>122</v>
       </c>
@@ -4948,17 +5587,20 @@
         <v>267</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="I132" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I132">
+  <autoFilter ref="A1:J132">
     <sortState ref="A2:I132">
       <sortCondition descending="1" ref="E1:E132"/>
     </sortState>
@@ -4971,14 +5613,571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" s="7" customFormat="1"/>
+    <row r="34" s="7" customFormat="1"/>
+    <row r="35" s="7" customFormat="1"/>
+    <row r="36" s="7" customFormat="1"/>
+    <row r="37" s="7" customFormat="1"/>
+    <row r="38" s="7" customFormat="1"/>
+    <row r="39" s="7" customFormat="1"/>
+    <row r="40" s="7" customFormat="1"/>
+    <row r="41" s="7" customFormat="1"/>
+    <row r="42" s="7" customFormat="1"/>
+    <row r="43" s="7" customFormat="1"/>
+    <row r="44" s="7" customFormat="1"/>
+    <row r="45" s="7" customFormat="1"/>
+    <row r="46" s="7" customFormat="1"/>
+    <row r="47" s="7" customFormat="1"/>
+    <row r="48" s="7" customFormat="1"/>
+    <row r="49" s="7" customFormat="1"/>
+    <row r="50" s="7" customFormat="1"/>
+    <row r="51" s="7" customFormat="1"/>
+    <row r="52" s="7" customFormat="1"/>
+    <row r="53" s="7" customFormat="1"/>
+    <row r="54" s="7" customFormat="1"/>
+    <row r="55" s="7" customFormat="1"/>
+    <row r="56" s="7" customFormat="1"/>
+    <row r="57" s="7" customFormat="1"/>
+    <row r="58" s="7" customFormat="1"/>
+    <row r="59" s="7" customFormat="1"/>
+    <row r="60" s="7" customFormat="1"/>
+    <row r="61" s="7" customFormat="1"/>
+    <row r="62" s="7" customFormat="1"/>
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="7" customFormat="1"/>
+    <row r="65" s="7" customFormat="1"/>
+    <row r="66" s="7" customFormat="1"/>
+    <row r="67" s="7" customFormat="1"/>
+    <row r="68" s="7" customFormat="1"/>
+    <row r="69" s="7" customFormat="1"/>
+    <row r="70" s="7" customFormat="1"/>
+    <row r="71" s="7" customFormat="1"/>
+    <row r="72" s="7" customFormat="1"/>
+    <row r="73" s="7" customFormat="1"/>
+    <row r="74" s="7" customFormat="1"/>
+    <row r="75" s="7" customFormat="1"/>
+    <row r="76" s="7" customFormat="1"/>
+    <row r="77" s="7" customFormat="1"/>
+    <row r="78" s="7" customFormat="1"/>
+    <row r="79" s="7" customFormat="1"/>
+    <row r="80" s="7" customFormat="1"/>
+    <row r="81" s="7" customFormat="1"/>
+    <row r="82" s="7" customFormat="1"/>
+    <row r="83" s="7" customFormat="1"/>
+    <row r="84" s="7" customFormat="1"/>
+    <row r="85" s="7" customFormat="1"/>
+    <row r="86" s="7" customFormat="1"/>
+    <row r="87" s="7" customFormat="1"/>
+    <row r="88" s="7" customFormat="1"/>
+    <row r="89" s="7" customFormat="1"/>
+    <row r="90" s="7" customFormat="1"/>
+    <row r="91" s="7" customFormat="1"/>
+    <row r="92" s="7" customFormat="1"/>
+    <row r="93" s="7" customFormat="1"/>
+    <row r="94" s="7" customFormat="1"/>
+    <row r="95" s="7" customFormat="1"/>
+    <row r="96" s="7" customFormat="1"/>
+    <row r="97" s="7" customFormat="1"/>
+    <row r="98" s="7" customFormat="1"/>
+    <row r="99" s="7" customFormat="1"/>
+    <row r="100" s="7" customFormat="1"/>
+    <row r="101" s="7" customFormat="1"/>
+    <row r="102" s="7" customFormat="1"/>
+    <row r="103" s="7" customFormat="1"/>
+    <row r="104" s="7" customFormat="1"/>
+    <row r="105" s="7" customFormat="1"/>
+    <row r="106" s="7" customFormat="1"/>
+    <row r="107" s="7" customFormat="1"/>
+    <row r="108" s="7" customFormat="1"/>
+    <row r="109" s="7" customFormat="1"/>
+    <row r="110" s="7" customFormat="1"/>
+    <row r="111" s="7" customFormat="1"/>
+    <row r="112" s="7" customFormat="1"/>
+    <row r="113" s="7" customFormat="1"/>
+    <row r="114" s="7" customFormat="1"/>
+    <row r="115" s="7" customFormat="1"/>
+    <row r="116" s="7" customFormat="1"/>
+    <row r="117" s="7" customFormat="1"/>
+    <row r="118" s="7" customFormat="1"/>
+    <row r="119" s="7" customFormat="1"/>
+    <row r="120" s="7" customFormat="1"/>
+    <row r="121" s="7" customFormat="1"/>
+    <row r="122" s="7" customFormat="1"/>
+    <row r="123" s="7" customFormat="1"/>
+    <row r="124" s="7" customFormat="1"/>
+    <row r="125" s="7" customFormat="1"/>
+    <row r="126" s="7" customFormat="1"/>
+    <row r="127" s="7" customFormat="1"/>
+    <row r="128" s="7" customFormat="1"/>
+    <row r="129" s="7" customFormat="1"/>
+    <row r="130" s="7" customFormat="1"/>
+    <row r="131" s="7" customFormat="1"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4988,7 +6187,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4997,25 +6196,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>

--- a/category.xlsx
+++ b/category.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="balance" sheetId="1" r:id="rId1"/>
-    <sheet name="capital_structure" sheetId="17" r:id="rId2"/>
-    <sheet name="income" sheetId="14" r:id="rId3"/>
-    <sheet name="cashflow" sheetId="15" r:id="rId4"/>
-    <sheet name="note" sheetId="16" r:id="rId5"/>
+    <sheet name="agg" sheetId="18" r:id="rId2"/>
+    <sheet name="capital_structure" sheetId="17" r:id="rId3"/>
+    <sheet name="income" sheetId="14" r:id="rId4"/>
+    <sheet name="cashflow" sheetId="15" r:id="rId5"/>
+    <sheet name="note" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">balance!$A$1:$J$132</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="419">
   <si>
     <t>total_share</t>
   </si>
@@ -1087,9 +1088,6 @@
   </si>
   <si>
     <t>WC+</t>
-  </si>
-  <si>
-    <t>WC+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1102,23 +1100,14 @@
   </si>
   <si>
     <t>WC-</t>
-  </si>
-  <si>
-    <t>WC-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equity-</t>
-  </si>
-  <si>
-    <t>equity-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equity+</t>
-  </si>
-  <si>
-    <t>equity+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1299,18 +1288,138 @@
   </si>
   <si>
     <t>invested_capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intangible_goodwill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap_struct_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap_struct_agg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1458,7 +1567,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1747,13 +1856,13 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="3" bestFit="1" customWidth="1"/>
@@ -1768,7 +1877,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="27">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
@@ -1800,7 +1909,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>62</v>
       </c>
@@ -1820,7 +1929,7 @@
         <v>275</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>122</v>
@@ -1829,7 +1938,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>17</v>
       </c>
@@ -1858,7 +1967,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>18</v>
       </c>
@@ -1887,7 +1996,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>19</v>
       </c>
@@ -1916,7 +2025,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -1945,7 +2054,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>21</v>
       </c>
@@ -1974,7 +2083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>26</v>
       </c>
@@ -2003,7 +2112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>29</v>
       </c>
@@ -2032,7 +2141,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -2061,7 +2170,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>34</v>
       </c>
@@ -2090,7 +2199,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>35</v>
       </c>
@@ -2119,7 +2228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>36</v>
       </c>
@@ -2148,7 +2257,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>37</v>
       </c>
@@ -2177,7 +2286,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>39</v>
       </c>
@@ -2206,7 +2315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>43</v>
       </c>
@@ -2235,7 +2344,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>46</v>
       </c>
@@ -2264,7 +2373,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>47</v>
       </c>
@@ -2293,7 +2402,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>48</v>
       </c>
@@ -2322,7 +2431,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>50</v>
       </c>
@@ -2351,7 +2460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>51</v>
       </c>
@@ -2380,7 +2489,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>52</v>
       </c>
@@ -2409,7 +2518,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>53</v>
       </c>
@@ -2438,7 +2547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>54</v>
       </c>
@@ -2467,7 +2576,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>55</v>
       </c>
@@ -2496,7 +2605,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>56</v>
       </c>
@@ -2525,7 +2634,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>57</v>
       </c>
@@ -2554,7 +2663,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>58</v>
       </c>
@@ -2583,7 +2692,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>59</v>
       </c>
@@ -2612,7 +2721,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>60</v>
       </c>
@@ -2641,7 +2750,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>61</v>
       </c>
@@ -2670,7 +2779,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>67</v>
       </c>
@@ -2699,7 +2808,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>79</v>
       </c>
@@ -2728,7 +2837,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>81</v>
       </c>
@@ -2757,7 +2866,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>82</v>
       </c>
@@ -2786,7 +2895,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>83</v>
       </c>
@@ -2815,7 +2924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>84</v>
       </c>
@@ -2844,7 +2953,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>85</v>
       </c>
@@ -2873,7 +2982,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>97</v>
       </c>
@@ -2902,7 +3011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>99</v>
       </c>
@@ -2931,7 +3040,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>100</v>
       </c>
@@ -2960,7 +3069,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>101</v>
       </c>
@@ -2989,7 +3098,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>102</v>
       </c>
@@ -3018,7 +3127,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>103</v>
       </c>
@@ -3047,7 +3156,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>104</v>
       </c>
@@ -3076,7 +3185,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -3105,7 +3214,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>106</v>
       </c>
@@ -3134,7 +3243,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>107</v>
       </c>
@@ -3163,7 +3272,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>108</v>
       </c>
@@ -3192,7 +3301,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>109</v>
       </c>
@@ -3221,7 +3330,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>110</v>
       </c>
@@ -3250,7 +3359,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>111</v>
       </c>
@@ -3279,7 +3388,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>112</v>
       </c>
@@ -3308,7 +3417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>116</v>
       </c>
@@ -3337,7 +3446,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>117</v>
       </c>
@@ -3366,7 +3475,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>124</v>
       </c>
@@ -3395,7 +3504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>125</v>
       </c>
@@ -3424,7 +3533,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>126</v>
       </c>
@@ -3453,7 +3562,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>127</v>
       </c>
@@ -3482,7 +3591,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>128</v>
       </c>
@@ -3511,7 +3620,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>129</v>
       </c>
@@ -3540,7 +3649,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>130</v>
       </c>
@@ -3569,7 +3678,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>131</v>
       </c>
@@ -3598,7 +3707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>22</v>
       </c>
@@ -3627,7 +3736,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -3656,7 +3765,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>72</v>
       </c>
@@ -3685,7 +3794,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>118</v>
       </c>
@@ -3714,7 +3823,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>24</v>
       </c>
@@ -3734,7 +3843,7 @@
         <v>298</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>269</v>
@@ -3743,7 +3852,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>6</v>
       </c>
@@ -3772,7 +3881,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>7</v>
       </c>
@@ -3789,10 +3898,10 @@
         <v>270</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>274</v>
@@ -3801,7 +3910,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -3821,7 +3930,7 @@
         <v>295</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>269</v>
@@ -3830,7 +3939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -3850,7 +3959,7 @@
         <v>295</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>269</v>
@@ -3859,7 +3968,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>10</v>
       </c>
@@ -3879,7 +3988,7 @@
         <v>295</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>269</v>
@@ -3888,7 +3997,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>11</v>
       </c>
@@ -3908,7 +4017,7 @@
         <v>295</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>269</v>
@@ -3917,7 +4026,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>12</v>
       </c>
@@ -3937,7 +4046,7 @@
         <v>295</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>269</v>
@@ -3946,7 +4055,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>13</v>
       </c>
@@ -3966,7 +4075,7 @@
         <v>295</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>274</v>
@@ -3975,7 +4084,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>14</v>
       </c>
@@ -3995,7 +4104,7 @@
         <v>295</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>269</v>
@@ -4004,7 +4113,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>16</v>
       </c>
@@ -4024,7 +4133,7 @@
         <v>295</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>334</v>
+        <v>410</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>269</v>
@@ -4033,7 +4142,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="27">
+    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>23</v>
       </c>
@@ -4062,7 +4171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>49</v>
       </c>
@@ -4091,7 +4200,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -4111,7 +4220,7 @@
         <v>301</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>269</v>
@@ -4120,7 +4229,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>64</v>
       </c>
@@ -4140,7 +4249,7 @@
         <v>302</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>269</v>
@@ -4149,7 +4258,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>66</v>
       </c>
@@ -4166,10 +4275,10 @@
         <v>272</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>269</v>
@@ -4178,7 +4287,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>68</v>
       </c>
@@ -4195,10 +4304,10 @@
         <v>272</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>276</v>
@@ -4207,7 +4316,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>69</v>
       </c>
@@ -4227,7 +4336,7 @@
         <v>296</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>338</v>
+        <v>411</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>269</v>
@@ -4236,7 +4345,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>70</v>
       </c>
@@ -4256,7 +4365,7 @@
         <v>296</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>269</v>
@@ -4265,7 +4374,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>71</v>
       </c>
@@ -4285,7 +4394,7 @@
         <v>296</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>269</v>
@@ -4294,7 +4403,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>73</v>
       </c>
@@ -4314,7 +4423,7 @@
         <v>296</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>269</v>
@@ -4323,7 +4432,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>74</v>
       </c>
@@ -4343,7 +4452,7 @@
         <v>296</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>276</v>
@@ -4352,7 +4461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>75</v>
       </c>
@@ -4372,7 +4481,7 @@
         <v>296</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>276</v>
@@ -4381,7 +4490,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>76</v>
       </c>
@@ -4401,7 +4510,7 @@
         <v>302</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>269</v>
@@ -4410,7 +4519,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>77</v>
       </c>
@@ -4430,7 +4539,7 @@
         <v>296</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>269</v>
@@ -4439,7 +4548,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>78</v>
       </c>
@@ -4459,7 +4568,7 @@
         <v>296</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>269</v>
@@ -4468,7 +4577,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>86</v>
       </c>
@@ -4488,7 +4597,7 @@
         <v>302</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>269</v>
@@ -4497,7 +4606,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="27">
+    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>87</v>
       </c>
@@ -4517,7 +4626,7 @@
         <v>296</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>269</v>
@@ -4526,7 +4635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>98</v>
       </c>
@@ -4546,7 +4655,7 @@
         <v>302</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>276</v>
@@ -4555,7 +4664,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="27">
+    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>120</v>
       </c>
@@ -4575,7 +4684,7 @@
         <v>238</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>238</v>
@@ -4584,7 +4693,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="27">
+    <row r="98" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>119</v>
       </c>
@@ -4604,7 +4713,7 @@
         <v>236</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>236</v>
@@ -4613,7 +4722,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -4633,7 +4742,7 @@
         <v>263</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>262</v>
@@ -4642,7 +4751,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -4662,7 +4771,7 @@
         <v>263</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>262</v>
@@ -4671,7 +4780,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -4691,7 +4800,7 @@
         <v>263</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>262</v>
@@ -4700,7 +4809,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -4720,7 +4829,7 @@
         <v>263</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>262</v>
@@ -4729,7 +4838,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -4749,7 +4858,7 @@
         <v>263</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>269</v>
@@ -4758,7 +4867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>114</v>
       </c>
@@ -4778,7 +4887,7 @@
         <v>305</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>269</v>
@@ -4787,7 +4896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>115</v>
       </c>
@@ -4807,7 +4916,7 @@
         <v>309</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>262</v>
@@ -4816,7 +4925,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>123</v>
       </c>
@@ -4836,7 +4945,7 @@
         <v>309</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>262</v>
@@ -4845,7 +4954,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>121</v>
       </c>
@@ -4865,7 +4974,7 @@
         <v>240</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>240</v>
@@ -4874,7 +4983,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>113</v>
       </c>
@@ -4894,7 +5003,7 @@
         <v>310</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>224</v>
@@ -4903,7 +5012,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>45</v>
       </c>
@@ -4923,7 +5032,7 @@
         <v>311</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>269</v>
@@ -4932,7 +5041,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>15</v>
       </c>
@@ -4952,7 +5061,7 @@
         <v>295</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>269</v>
@@ -4961,7 +5070,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>25</v>
       </c>
@@ -4981,7 +5090,7 @@
         <v>320</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>274</v>
@@ -4990,7 +5099,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>27</v>
       </c>
@@ -5010,7 +5119,7 @@
         <v>321</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>274</v>
@@ -5019,7 +5128,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="27">
+    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>28</v>
       </c>
@@ -5048,7 +5157,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>31</v>
       </c>
@@ -5068,7 +5177,7 @@
         <v>317</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>269</v>
@@ -5077,7 +5186,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>32</v>
       </c>
@@ -5097,7 +5206,7 @@
         <v>316</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>274</v>
@@ -5106,7 +5215,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>33</v>
       </c>
@@ -5126,7 +5235,7 @@
         <v>316</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>274</v>
@@ -5135,7 +5244,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>38</v>
       </c>
@@ -5155,7 +5264,7 @@
         <v>314</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>274</v>
@@ -5164,7 +5273,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>40</v>
       </c>
@@ -5193,7 +5302,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>41</v>
       </c>
@@ -5213,7 +5322,7 @@
         <v>322</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>269</v>
@@ -5222,7 +5331,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>42</v>
       </c>
@@ -5242,7 +5351,7 @@
         <v>322</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>274</v>
@@ -5251,7 +5360,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>44</v>
       </c>
@@ -5271,7 +5380,7 @@
         <v>322</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>269</v>
@@ -5280,7 +5389,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>96</v>
       </c>
@@ -5300,7 +5409,7 @@
         <v>312</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>269</v>
@@ -5309,7 +5418,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>63</v>
       </c>
@@ -5326,10 +5435,10 @@
         <v>267</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>269</v>
@@ -5338,7 +5447,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>80</v>
       </c>
@@ -5358,7 +5467,7 @@
         <v>313</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>269</v>
@@ -5367,7 +5476,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>89</v>
       </c>
@@ -5384,10 +5493,10 @@
         <v>267</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>276</v>
@@ -5396,7 +5505,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>90</v>
       </c>
@@ -5416,7 +5525,7 @@
         <v>313</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>269</v>
@@ -5425,7 +5534,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>91</v>
       </c>
@@ -5445,7 +5554,7 @@
         <v>313</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>269</v>
@@ -5454,7 +5563,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>92</v>
       </c>
@@ -5474,7 +5583,7 @@
         <v>313</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>269</v>
@@ -5483,7 +5592,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>93</v>
       </c>
@@ -5503,7 +5612,7 @@
         <v>313</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>276</v>
@@ -5512,7 +5621,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>94</v>
       </c>
@@ -5532,7 +5641,7 @@
         <v>313</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>269</v>
@@ -5541,7 +5650,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>95</v>
       </c>
@@ -5561,7 +5670,7 @@
         <v>313</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>269</v>
@@ -5570,7 +5679,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>122</v>
       </c>
@@ -5590,7 +5699,7 @@
         <v>313</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>269</v>
@@ -5613,567 +5722,474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="31.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>326</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>294</v>
+        <v>327</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>333</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>316</v>
+      <c r="D4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>344</v>
+      <c r="D6" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>321</v>
+      <c r="D9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>389</v>
+      <c r="D11" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C19" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="D20" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>297</v>
+      <c r="D21" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>331</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="D23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>307</v>
+        <v>386</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>390</v>
+      <c r="C25" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>386</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" s="7" customFormat="1"/>
-    <row r="34" s="7" customFormat="1"/>
-    <row r="35" s="7" customFormat="1"/>
-    <row r="36" s="7" customFormat="1"/>
-    <row r="37" s="7" customFormat="1"/>
-    <row r="38" s="7" customFormat="1"/>
-    <row r="39" s="7" customFormat="1"/>
-    <row r="40" s="7" customFormat="1"/>
-    <row r="41" s="7" customFormat="1"/>
-    <row r="42" s="7" customFormat="1"/>
-    <row r="43" s="7" customFormat="1"/>
-    <row r="44" s="7" customFormat="1"/>
-    <row r="45" s="7" customFormat="1"/>
-    <row r="46" s="7" customFormat="1"/>
-    <row r="47" s="7" customFormat="1"/>
-    <row r="48" s="7" customFormat="1"/>
-    <row r="49" s="7" customFormat="1"/>
-    <row r="50" s="7" customFormat="1"/>
-    <row r="51" s="7" customFormat="1"/>
-    <row r="52" s="7" customFormat="1"/>
-    <row r="53" s="7" customFormat="1"/>
-    <row r="54" s="7" customFormat="1"/>
-    <row r="55" s="7" customFormat="1"/>
-    <row r="56" s="7" customFormat="1"/>
-    <row r="57" s="7" customFormat="1"/>
-    <row r="58" s="7" customFormat="1"/>
-    <row r="59" s="7" customFormat="1"/>
-    <row r="60" s="7" customFormat="1"/>
-    <row r="61" s="7" customFormat="1"/>
-    <row r="62" s="7" customFormat="1"/>
-    <row r="63" s="7" customFormat="1"/>
-    <row r="64" s="7" customFormat="1"/>
-    <row r="65" s="7" customFormat="1"/>
-    <row r="66" s="7" customFormat="1"/>
-    <row r="67" s="7" customFormat="1"/>
-    <row r="68" s="7" customFormat="1"/>
-    <row r="69" s="7" customFormat="1"/>
-    <row r="70" s="7" customFormat="1"/>
-    <row r="71" s="7" customFormat="1"/>
-    <row r="72" s="7" customFormat="1"/>
-    <row r="73" s="7" customFormat="1"/>
-    <row r="74" s="7" customFormat="1"/>
-    <row r="75" s="7" customFormat="1"/>
-    <row r="76" s="7" customFormat="1"/>
-    <row r="77" s="7" customFormat="1"/>
-    <row r="78" s="7" customFormat="1"/>
-    <row r="79" s="7" customFormat="1"/>
-    <row r="80" s="7" customFormat="1"/>
-    <row r="81" s="7" customFormat="1"/>
-    <row r="82" s="7" customFormat="1"/>
-    <row r="83" s="7" customFormat="1"/>
-    <row r="84" s="7" customFormat="1"/>
-    <row r="85" s="7" customFormat="1"/>
-    <row r="86" s="7" customFormat="1"/>
-    <row r="87" s="7" customFormat="1"/>
-    <row r="88" s="7" customFormat="1"/>
-    <row r="89" s="7" customFormat="1"/>
-    <row r="90" s="7" customFormat="1"/>
-    <row r="91" s="7" customFormat="1"/>
-    <row r="92" s="7" customFormat="1"/>
-    <row r="93" s="7" customFormat="1"/>
-    <row r="94" s="7" customFormat="1"/>
-    <row r="95" s="7" customFormat="1"/>
-    <row r="96" s="7" customFormat="1"/>
-    <row r="97" s="7" customFormat="1"/>
-    <row r="98" s="7" customFormat="1"/>
-    <row r="99" s="7" customFormat="1"/>
-    <row r="100" s="7" customFormat="1"/>
-    <row r="101" s="7" customFormat="1"/>
-    <row r="102" s="7" customFormat="1"/>
-    <row r="103" s="7" customFormat="1"/>
-    <row r="104" s="7" customFormat="1"/>
-    <row r="105" s="7" customFormat="1"/>
-    <row r="106" s="7" customFormat="1"/>
-    <row r="107" s="7" customFormat="1"/>
-    <row r="108" s="7" customFormat="1"/>
-    <row r="109" s="7" customFormat="1"/>
-    <row r="110" s="7" customFormat="1"/>
-    <row r="111" s="7" customFormat="1"/>
-    <row r="112" s="7" customFormat="1"/>
-    <row r="113" s="7" customFormat="1"/>
-    <row r="114" s="7" customFormat="1"/>
-    <row r="115" s="7" customFormat="1"/>
-    <row r="116" s="7" customFormat="1"/>
-    <row r="117" s="7" customFormat="1"/>
-    <row r="118" s="7" customFormat="1"/>
-    <row r="119" s="7" customFormat="1"/>
-    <row r="120" s="7" customFormat="1"/>
-    <row r="121" s="7" customFormat="1"/>
-    <row r="122" s="7" customFormat="1"/>
-    <row r="123" s="7" customFormat="1"/>
-    <row r="124" s="7" customFormat="1"/>
-    <row r="125" s="7" customFormat="1"/>
-    <row r="126" s="7" customFormat="1"/>
-    <row r="127" s="7" customFormat="1"/>
-    <row r="128" s="7" customFormat="1"/>
-    <row r="129" s="7" customFormat="1"/>
-    <row r="130" s="7" customFormat="1"/>
-    <row r="131" s="7" customFormat="1"/>
+      <c r="C29" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6183,14 +6199,841 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6200,7 +7043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6209,25 +7052,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>

--- a/category.xlsx
+++ b/category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="balance" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="426">
   <si>
     <t>total_share</t>
   </si>
@@ -1081,9 +1081,6 @@
   </si>
   <si>
     <t>cash</t>
-  </si>
-  <si>
-    <t>cash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1408,18 +1405,50 @@
   </si>
   <si>
     <t>wc_net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金+交易性金融资产-预计负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金=现金+其他流动资产+衍生金融资产+投资性房地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,7 +1596,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1855,14 +1884,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomRight" activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="3" bestFit="1" customWidth="1"/>
@@ -1877,7 +1906,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
@@ -1909,7 +1938,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>62</v>
       </c>
@@ -1929,7 +1958,7 @@
         <v>275</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>122</v>
@@ -1938,7 +1967,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>17</v>
       </c>
@@ -1967,7 +1996,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>18</v>
       </c>
@@ -1996,7 +2025,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>19</v>
       </c>
@@ -2025,7 +2054,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -2054,7 +2083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>21</v>
       </c>
@@ -2083,7 +2112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>26</v>
       </c>
@@ -2112,7 +2141,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>29</v>
       </c>
@@ -2141,7 +2170,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -2170,7 +2199,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>34</v>
       </c>
@@ -2199,7 +2228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>35</v>
       </c>
@@ -2228,7 +2257,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>36</v>
       </c>
@@ -2257,7 +2286,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>37</v>
       </c>
@@ -2286,7 +2315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>39</v>
       </c>
@@ -2315,7 +2344,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>43</v>
       </c>
@@ -2344,7 +2373,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>46</v>
       </c>
@@ -2373,7 +2402,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>47</v>
       </c>
@@ -2402,7 +2431,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>48</v>
       </c>
@@ -2431,7 +2460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>50</v>
       </c>
@@ -2460,7 +2489,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>51</v>
       </c>
@@ -2489,7 +2518,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>52</v>
       </c>
@@ -2518,7 +2547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>53</v>
       </c>
@@ -2547,7 +2576,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>54</v>
       </c>
@@ -2576,7 +2605,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>55</v>
       </c>
@@ -2605,7 +2634,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>56</v>
       </c>
@@ -2634,7 +2663,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>57</v>
       </c>
@@ -2663,7 +2692,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>58</v>
       </c>
@@ -2692,7 +2721,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>59</v>
       </c>
@@ -2721,7 +2750,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>60</v>
       </c>
@@ -2750,7 +2779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>61</v>
       </c>
@@ -2779,7 +2808,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>67</v>
       </c>
@@ -2808,7 +2837,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
         <v>79</v>
       </c>
@@ -2837,7 +2866,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="3">
         <v>81</v>
       </c>
@@ -2866,7 +2895,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="3">
         <v>82</v>
       </c>
@@ -2895,7 +2924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
         <v>83</v>
       </c>
@@ -2924,7 +2953,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="3">
         <v>84</v>
       </c>
@@ -2953,7 +2982,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="3">
         <v>85</v>
       </c>
@@ -2982,7 +3011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="3">
         <v>97</v>
       </c>
@@ -3011,7 +3040,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="3">
         <v>99</v>
       </c>
@@ -3040,7 +3069,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" s="3">
         <v>100</v>
       </c>
@@ -3069,7 +3098,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="3">
         <v>101</v>
       </c>
@@ -3098,7 +3127,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" s="3">
         <v>102</v>
       </c>
@@ -3127,7 +3156,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="3">
         <v>103</v>
       </c>
@@ -3156,7 +3185,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" s="3">
         <v>104</v>
       </c>
@@ -3185,7 +3214,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -3214,7 +3243,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" s="3">
         <v>106</v>
       </c>
@@ -3243,7 +3272,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48" s="3">
         <v>107</v>
       </c>
@@ -3272,7 +3301,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="A49" s="3">
         <v>108</v>
       </c>
@@ -3301,7 +3330,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50" s="3">
         <v>109</v>
       </c>
@@ -3330,7 +3359,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>110</v>
       </c>
@@ -3359,7 +3388,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52" s="3">
         <v>111</v>
       </c>
@@ -3388,7 +3417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53" s="3">
         <v>112</v>
       </c>
@@ -3417,7 +3446,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" s="3">
         <v>116</v>
       </c>
@@ -3446,7 +3475,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="A55" s="3">
         <v>117</v>
       </c>
@@ -3475,7 +3504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="A56" s="3">
         <v>124</v>
       </c>
@@ -3504,7 +3533,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="A57" s="3">
         <v>125</v>
       </c>
@@ -3533,7 +3562,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="A58" s="3">
         <v>126</v>
       </c>
@@ -3562,7 +3591,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59" s="3">
         <v>127</v>
       </c>
@@ -3591,7 +3620,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" s="3">
         <v>128</v>
       </c>
@@ -3620,7 +3649,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="A61" s="3">
         <v>129</v>
       </c>
@@ -3649,7 +3678,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="A62" s="3">
         <v>130</v>
       </c>
@@ -3678,7 +3707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="A63" s="3">
         <v>131</v>
       </c>
@@ -3707,7 +3736,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="A64" s="3">
         <v>22</v>
       </c>
@@ -3736,7 +3765,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -3765,7 +3794,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
         <v>72</v>
       </c>
@@ -3794,7 +3823,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>118</v>
       </c>
@@ -3823,7 +3852,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="A68" s="3">
         <v>24</v>
       </c>
@@ -3843,7 +3872,7 @@
         <v>298</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>269</v>
@@ -3852,7 +3881,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="A69" s="3">
         <v>6</v>
       </c>
@@ -3872,7 +3901,7 @@
         <v>294</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>269</v>
@@ -3881,7 +3910,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>7</v>
       </c>
@@ -3898,10 +3927,10 @@
         <v>270</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>274</v>
@@ -3910,7 +3939,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -3930,7 +3959,7 @@
         <v>295</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>269</v>
@@ -3939,7 +3968,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -3959,7 +3988,7 @@
         <v>295</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>269</v>
@@ -3968,7 +3997,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="A73" s="3">
         <v>10</v>
       </c>
@@ -3988,7 +4017,7 @@
         <v>295</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>269</v>
@@ -3997,7 +4026,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9">
       <c r="A74" s="3">
         <v>11</v>
       </c>
@@ -4017,7 +4046,7 @@
         <v>295</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>269</v>
@@ -4026,7 +4055,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>12</v>
       </c>
@@ -4046,7 +4075,7 @@
         <v>295</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>269</v>
@@ -4055,7 +4084,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
         <v>13</v>
       </c>
@@ -4075,7 +4104,7 @@
         <v>295</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>274</v>
@@ -4084,7 +4113,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="A77" s="3">
         <v>14</v>
       </c>
@@ -4104,7 +4133,7 @@
         <v>295</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>269</v>
@@ -4113,7 +4142,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9">
       <c r="A78" s="3">
         <v>16</v>
       </c>
@@ -4133,7 +4162,7 @@
         <v>295</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>269</v>
@@ -4142,7 +4171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="27">
       <c r="A79" s="3">
         <v>23</v>
       </c>
@@ -4162,7 +4191,7 @@
         <v>294</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>269</v>
@@ -4171,7 +4200,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>49</v>
       </c>
@@ -4191,7 +4220,7 @@
         <v>294</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>274</v>
@@ -4200,7 +4229,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -4220,7 +4249,7 @@
         <v>301</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>269</v>
@@ -4229,7 +4258,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9">
       <c r="A82" s="3">
         <v>64</v>
       </c>
@@ -4249,7 +4278,7 @@
         <v>302</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>269</v>
@@ -4258,7 +4287,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9">
       <c r="A83" s="3">
         <v>66</v>
       </c>
@@ -4275,10 +4304,10 @@
         <v>272</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>269</v>
@@ -4287,7 +4316,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="A84" s="3">
         <v>68</v>
       </c>
@@ -4304,10 +4333,10 @@
         <v>272</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>276</v>
@@ -4316,7 +4345,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="A85" s="3">
         <v>69</v>
       </c>
@@ -4336,7 +4365,7 @@
         <v>296</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>269</v>
@@ -4345,7 +4374,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="A86" s="3">
         <v>70</v>
       </c>
@@ -4365,7 +4394,7 @@
         <v>296</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>269</v>
@@ -4374,7 +4403,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="A87" s="3">
         <v>71</v>
       </c>
@@ -4394,7 +4423,7 @@
         <v>296</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>269</v>
@@ -4403,7 +4432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9">
       <c r="A88" s="3">
         <v>73</v>
       </c>
@@ -4423,7 +4452,7 @@
         <v>296</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>269</v>
@@ -4432,7 +4461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="A89" s="3">
         <v>74</v>
       </c>
@@ -4452,7 +4481,7 @@
         <v>296</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>276</v>
@@ -4461,7 +4490,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90" s="3">
         <v>75</v>
       </c>
@@ -4481,7 +4510,7 @@
         <v>296</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>276</v>
@@ -4490,7 +4519,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9">
       <c r="A91" s="3">
         <v>76</v>
       </c>
@@ -4510,7 +4539,7 @@
         <v>302</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>269</v>
@@ -4519,7 +4548,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9">
       <c r="A92" s="3">
         <v>77</v>
       </c>
@@ -4539,7 +4568,7 @@
         <v>296</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>269</v>
@@ -4548,7 +4577,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9">
       <c r="A93" s="3">
         <v>78</v>
       </c>
@@ -4568,7 +4597,7 @@
         <v>296</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>269</v>
@@ -4577,7 +4606,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9">
       <c r="A94" s="3">
         <v>86</v>
       </c>
@@ -4597,7 +4626,7 @@
         <v>302</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>269</v>
@@ -4606,7 +4635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="27">
       <c r="A95" s="3">
         <v>87</v>
       </c>
@@ -4626,7 +4655,7 @@
         <v>296</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>269</v>
@@ -4635,7 +4664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9">
       <c r="A96" s="3">
         <v>98</v>
       </c>
@@ -4655,7 +4684,7 @@
         <v>302</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>276</v>
@@ -4664,7 +4693,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="27">
       <c r="A97" s="3">
         <v>120</v>
       </c>
@@ -4684,7 +4713,7 @@
         <v>238</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>238</v>
@@ -4693,7 +4722,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="27">
       <c r="A98" s="3">
         <v>119</v>
       </c>
@@ -4713,7 +4742,7 @@
         <v>236</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>236</v>
@@ -4722,7 +4751,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -4742,7 +4771,7 @@
         <v>263</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>262</v>
@@ -4751,7 +4780,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -4771,7 +4800,7 @@
         <v>263</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>262</v>
@@ -4780,7 +4809,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -4800,7 +4829,7 @@
         <v>263</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>262</v>
@@ -4809,7 +4838,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -4829,7 +4858,7 @@
         <v>263</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>262</v>
@@ -4838,7 +4867,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -4858,7 +4887,7 @@
         <v>263</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>269</v>
@@ -4867,7 +4896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9">
       <c r="A104" s="3">
         <v>114</v>
       </c>
@@ -4887,7 +4916,7 @@
         <v>305</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>269</v>
@@ -4896,7 +4925,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9">
       <c r="A105" s="3">
         <v>115</v>
       </c>
@@ -4916,7 +4945,7 @@
         <v>309</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>262</v>
@@ -4925,7 +4954,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9">
       <c r="A106" s="3">
         <v>123</v>
       </c>
@@ -4945,7 +4974,7 @@
         <v>309</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>262</v>
@@ -4954,7 +4983,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9">
       <c r="A107" s="3">
         <v>121</v>
       </c>
@@ -4974,7 +5003,7 @@
         <v>240</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>240</v>
@@ -4983,7 +5012,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9">
       <c r="A108" s="3">
         <v>113</v>
       </c>
@@ -5003,7 +5032,7 @@
         <v>310</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>224</v>
@@ -5012,7 +5041,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9">
       <c r="A109" s="3">
         <v>45</v>
       </c>
@@ -5032,7 +5061,7 @@
         <v>311</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>269</v>
@@ -5041,7 +5070,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9">
       <c r="A110" s="3">
         <v>15</v>
       </c>
@@ -5061,7 +5090,7 @@
         <v>295</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>269</v>
@@ -5070,7 +5099,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9">
       <c r="A111" s="3">
         <v>25</v>
       </c>
@@ -5090,7 +5119,7 @@
         <v>320</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>274</v>
@@ -5099,7 +5128,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9">
       <c r="A112" s="3">
         <v>27</v>
       </c>
@@ -5119,7 +5148,7 @@
         <v>321</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>274</v>
@@ -5128,7 +5157,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="27">
       <c r="A113" s="3">
         <v>28</v>
       </c>
@@ -5148,7 +5177,7 @@
         <v>318</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>269</v>
@@ -5157,7 +5186,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9">
       <c r="A114" s="3">
         <v>31</v>
       </c>
@@ -5177,7 +5206,7 @@
         <v>317</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>269</v>
@@ -5186,7 +5215,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9">
       <c r="A115" s="3">
         <v>32</v>
       </c>
@@ -5206,7 +5235,7 @@
         <v>316</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>274</v>
@@ -5215,7 +5244,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9">
       <c r="A116" s="3">
         <v>33</v>
       </c>
@@ -5235,7 +5264,7 @@
         <v>316</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>274</v>
@@ -5244,7 +5273,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9">
       <c r="A117" s="3">
         <v>38</v>
       </c>
@@ -5264,7 +5293,7 @@
         <v>314</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>274</v>
@@ -5273,7 +5302,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9">
       <c r="A118" s="3">
         <v>40</v>
       </c>
@@ -5302,7 +5331,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9">
       <c r="A119" s="3">
         <v>41</v>
       </c>
@@ -5322,7 +5351,7 @@
         <v>322</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>269</v>
@@ -5331,7 +5360,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9">
       <c r="A120" s="3">
         <v>42</v>
       </c>
@@ -5351,7 +5380,7 @@
         <v>322</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>274</v>
@@ -5360,7 +5389,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9">
       <c r="A121" s="3">
         <v>44</v>
       </c>
@@ -5380,7 +5409,7 @@
         <v>322</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>269</v>
@@ -5389,7 +5418,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9">
       <c r="A122" s="3">
         <v>96</v>
       </c>
@@ -5409,7 +5438,7 @@
         <v>312</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>269</v>
@@ -5418,7 +5447,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9">
       <c r="A123" s="3">
         <v>63</v>
       </c>
@@ -5435,10 +5464,10 @@
         <v>267</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>269</v>
@@ -5447,7 +5476,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9">
       <c r="A124" s="3">
         <v>80</v>
       </c>
@@ -5467,7 +5496,7 @@
         <v>313</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>269</v>
@@ -5476,7 +5505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9">
       <c r="A125" s="3">
         <v>89</v>
       </c>
@@ -5493,10 +5522,10 @@
         <v>267</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>276</v>
@@ -5505,7 +5534,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9">
       <c r="A126" s="3">
         <v>90</v>
       </c>
@@ -5525,7 +5554,7 @@
         <v>313</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>269</v>
@@ -5534,7 +5563,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9">
       <c r="A127" s="3">
         <v>91</v>
       </c>
@@ -5554,7 +5583,7 @@
         <v>313</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>269</v>
@@ -5563,7 +5592,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9">
       <c r="A128" s="3">
         <v>92</v>
       </c>
@@ -5573,17 +5602,17 @@
       <c r="C128" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>267</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>313</v>
+        <v>425</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>269</v>
@@ -5592,7 +5621,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9">
       <c r="A129" s="3">
         <v>93</v>
       </c>
@@ -5612,7 +5641,7 @@
         <v>313</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>276</v>
@@ -5621,7 +5650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9">
       <c r="A130" s="3">
         <v>94</v>
       </c>
@@ -5641,7 +5670,7 @@
         <v>313</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>269</v>
@@ -5650,7 +5679,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9">
       <c r="A131" s="3">
         <v>95</v>
       </c>
@@ -5670,7 +5699,7 @@
         <v>313</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>269</v>
@@ -5679,7 +5708,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9">
       <c r="A132" s="3">
         <v>122</v>
       </c>
@@ -5699,7 +5728,7 @@
         <v>313</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>269</v>
@@ -5709,11 +5738,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J132">
-    <sortState ref="A2:I132">
-      <sortCondition descending="1" ref="E1:E132"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J132"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5724,17 +5749,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="18.875" style="7" customWidth="1"/>
     <col min="10" max="10" width="21.625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="7" bestFit="1" customWidth="1"/>
@@ -5745,9 +5770,9 @@
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>326</v>
@@ -5755,10 +5780,10 @@
       <c r="C1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>374</v>
       </c>
       <c r="F1" s="6"/>
@@ -5766,427 +5791,440 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E2" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E7" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>320</v>
+        <v>335</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E13" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E14" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="C29" s="7"/>
     </row>
@@ -6205,7 +6243,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="7" bestFit="1" customWidth="1"/>
@@ -6226,7 +6264,7 @@
     <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>327</v>
       </c>
@@ -6234,364 +6272,364 @@
         <v>326</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>320</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>320</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="B12" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="3" t="s">
         <v>297</v>
       </c>
@@ -6599,42 +6637,42 @@
         <v>331</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="3" t="s">
         <v>307</v>
       </c>
@@ -6642,394 +6680,394 @@
         <v>329</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="C31" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="E31" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="W31" s="7" t="s">
         <v>331</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Z31" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="A32" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="B37" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="112" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="119" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="120" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="122" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="123" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="124" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="125" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="126" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="127" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="128" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="129" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="130" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="131" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="7" customFormat="1"/>
+    <row r="66" s="7" customFormat="1"/>
+    <row r="67" s="7" customFormat="1"/>
+    <row r="68" s="7" customFormat="1"/>
+    <row r="69" s="7" customFormat="1"/>
+    <row r="70" s="7" customFormat="1"/>
+    <row r="71" s="7" customFormat="1"/>
+    <row r="72" s="7" customFormat="1"/>
+    <row r="73" s="7" customFormat="1"/>
+    <row r="74" s="7" customFormat="1"/>
+    <row r="75" s="7" customFormat="1"/>
+    <row r="76" s="7" customFormat="1"/>
+    <row r="77" s="7" customFormat="1"/>
+    <row r="78" s="7" customFormat="1"/>
+    <row r="79" s="7" customFormat="1"/>
+    <row r="80" s="7" customFormat="1"/>
+    <row r="81" s="7" customFormat="1"/>
+    <row r="82" s="7" customFormat="1"/>
+    <row r="83" s="7" customFormat="1"/>
+    <row r="84" s="7" customFormat="1"/>
+    <row r="85" s="7" customFormat="1"/>
+    <row r="86" s="7" customFormat="1"/>
+    <row r="87" s="7" customFormat="1"/>
+    <row r="88" s="7" customFormat="1"/>
+    <row r="89" s="7" customFormat="1"/>
+    <row r="90" s="7" customFormat="1"/>
+    <row r="91" s="7" customFormat="1"/>
+    <row r="92" s="7" customFormat="1"/>
+    <row r="93" s="7" customFormat="1"/>
+    <row r="94" s="7" customFormat="1"/>
+    <row r="95" s="7" customFormat="1"/>
+    <row r="96" s="7" customFormat="1"/>
+    <row r="97" s="7" customFormat="1"/>
+    <row r="98" s="7" customFormat="1"/>
+    <row r="99" s="7" customFormat="1"/>
+    <row r="100" s="7" customFormat="1"/>
+    <row r="101" s="7" customFormat="1"/>
+    <row r="102" s="7" customFormat="1"/>
+    <row r="103" s="7" customFormat="1"/>
+    <row r="104" s="7" customFormat="1"/>
+    <row r="105" s="7" customFormat="1"/>
+    <row r="106" s="7" customFormat="1"/>
+    <row r="107" s="7" customFormat="1"/>
+    <row r="108" s="7" customFormat="1"/>
+    <row r="109" s="7" customFormat="1"/>
+    <row r="110" s="7" customFormat="1"/>
+    <row r="111" s="7" customFormat="1"/>
+    <row r="112" s="7" customFormat="1"/>
+    <row r="113" s="7" customFormat="1"/>
+    <row r="114" s="7" customFormat="1"/>
+    <row r="115" s="7" customFormat="1"/>
+    <row r="116" s="7" customFormat="1"/>
+    <row r="117" s="7" customFormat="1"/>
+    <row r="118" s="7" customFormat="1"/>
+    <row r="119" s="7" customFormat="1"/>
+    <row r="120" s="7" customFormat="1"/>
+    <row r="121" s="7" customFormat="1"/>
+    <row r="122" s="7" customFormat="1"/>
+    <row r="123" s="7" customFormat="1"/>
+    <row r="124" s="7" customFormat="1"/>
+    <row r="125" s="7" customFormat="1"/>
+    <row r="126" s="7" customFormat="1"/>
+    <row r="127" s="7" customFormat="1"/>
+    <row r="128" s="7" customFormat="1"/>
+    <row r="129" s="7" customFormat="1"/>
+    <row r="130" s="7" customFormat="1"/>
+    <row r="131" s="7" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7043,7 +7081,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7056,7 +7094,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7071,19 +7109,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>

--- a/category.xlsx
+++ b/category.xlsx
@@ -1420,10 +1420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现金=现金+其他流动资产+衍生金融资产+投资性房地产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cash_plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1436,19 +1432,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现金-</t>
+    <t>现金-：预计负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金+：现金+其他流动资产+衍生金融资产+投资性房地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,7 +1596,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1885,13 +1885,13 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E128" sqref="E128"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="3" bestFit="1" customWidth="1"/>
@@ -1906,7 +1906,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="27">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>62</v>
       </c>
@@ -1967,404 +1967,404 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>269</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>92</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="3" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3">
-        <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3">
-        <v>43</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>274</v>
@@ -2373,47 +2373,47 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>264</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>328</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>264</v>
@@ -2428,21 +2428,21 @@
         <v>274</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>264</v>
@@ -2454,24 +2454,24 @@
         <v>328</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>264</v>
@@ -2486,21 +2486,21 @@
         <v>269</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>264</v>
@@ -2515,21 +2515,21 @@
         <v>269</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>264</v>
@@ -2541,24 +2541,24 @@
         <v>328</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>264</v>
@@ -2573,21 +2573,21 @@
         <v>269</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>264</v>
@@ -2599,24 +2599,24 @@
         <v>328</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>264</v>
@@ -2631,21 +2631,21 @@
         <v>269</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>264</v>
@@ -2660,21 +2660,21 @@
         <v>269</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>264</v>
@@ -2689,21 +2689,21 @@
         <v>269</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>264</v>
@@ -2721,18 +2721,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>264</v>
@@ -2750,18 +2750,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>264</v>
@@ -2773,24 +2773,24 @@
         <v>328</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>264</v>
@@ -2805,21 +2805,21 @@
         <v>274</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>264</v>
@@ -2831,24 +2831,24 @@
         <v>328</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>264</v>
@@ -2860,24 +2860,24 @@
         <v>328</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>264</v>
@@ -2895,18 +2895,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>264</v>
@@ -2921,21 +2921,21 @@
         <v>269</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>264</v>
@@ -2950,21 +2950,21 @@
         <v>269</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>264</v>
@@ -2979,21 +2979,21 @@
         <v>269</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>264</v>
@@ -3011,18 +3011,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>264</v>
@@ -3034,24 +3034,24 @@
         <v>328</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>264</v>
@@ -3063,24 +3063,24 @@
         <v>328</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>264</v>
@@ -3095,21 +3095,21 @@
         <v>269</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>264</v>
@@ -3121,24 +3121,24 @@
         <v>328</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>264</v>
@@ -3153,21 +3153,21 @@
         <v>269</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>264</v>
@@ -3185,18 +3185,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>264</v>
@@ -3208,24 +3208,24 @@
         <v>328</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>264</v>
@@ -3237,24 +3237,24 @@
         <v>328</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>264</v>
@@ -3272,18 +3272,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>264</v>
@@ -3301,18 +3301,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>264</v>
@@ -3327,21 +3327,21 @@
         <v>269</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>264</v>
@@ -3359,18 +3359,18 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>264</v>
@@ -3385,21 +3385,21 @@
         <v>269</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>264</v>
@@ -3414,21 +3414,21 @@
         <v>269</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>264</v>
@@ -3440,24 +3440,24 @@
         <v>328</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>264</v>
@@ -3469,24 +3469,24 @@
         <v>328</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>264</v>
@@ -3504,18 +3504,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>264</v>
@@ -3527,24 +3527,24 @@
         <v>328</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>264</v>
@@ -3559,21 +3559,21 @@
         <v>269</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>264</v>
@@ -3591,18 +3591,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>264</v>
@@ -3617,21 +3617,21 @@
         <v>269</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>264</v>
@@ -3649,18 +3649,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>264</v>
@@ -3678,18 +3678,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>264</v>
@@ -3707,18 +3707,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>264</v>
@@ -3736,1042 +3736,1042 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>328</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>328</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>328</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
+        <v>112</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>116</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>117</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>124</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>125</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>126</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>127</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>128</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>129</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>130</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>131</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>22</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>65</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>72</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>25</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>7</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>27</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
         <v>118</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>40</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
         <v>24</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="3">
+      <c r="H86" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>88</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>32</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>33</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>120</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>119</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>114</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>2</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>4</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="3">
+      <c r="C96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="3">
+      <c r="D96" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="3">
+      <c r="C97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="3">
-        <v>10</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="3">
-        <v>11</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="3">
-        <v>12</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="3">
-        <v>13</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="3">
-        <v>14</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="3">
-        <v>16</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="27">
-      <c r="A79" s="3">
-        <v>23</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="3">
-        <v>49</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="3">
-        <v>88</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="3">
-        <v>64</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="3">
-        <v>66</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="3">
-        <v>68</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="3">
-        <v>69</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="3">
-        <v>70</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="3">
-        <v>71</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="3">
-        <v>73</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="3">
-        <v>74</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="3">
-        <v>75</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="3">
-        <v>76</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="3">
-        <v>77</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="3">
-        <v>78</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="3">
-        <v>86</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="27">
-      <c r="A95" s="3">
-        <v>87</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="3">
-        <v>98</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="3">
-        <v>120</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="D97" s="3" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="27">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>262</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>262</v>
@@ -4780,317 +4780,317 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
         <v>8</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
         <v>9</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="3">
-        <v>114</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="3">
-        <v>115</v>
-      </c>
       <c r="B105" s="3" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>224</v>
+        <v>23</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>269</v>
@@ -5099,111 +5099,111 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="27">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>319</v>
+        <v>61</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>269</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>406</v>
@@ -5215,27 +5215,27 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>274</v>
@@ -5244,256 +5244,256 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="3">
+        <v>70</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>71</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>73</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
         <v>74</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="B121" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
         <v>75</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="3">
-        <v>40</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="B122" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>77</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="3">
         <v>78</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="3">
-        <v>41</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="3">
-        <v>42</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="3">
-        <v>44</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="3">
-        <v>96</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="3">
-        <v>63</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="3">
-        <v>80</v>
-      </c>
       <c r="B124" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>411</v>
@@ -5505,47 +5505,47 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>267</v>
@@ -5554,7 +5554,7 @@
         <v>313</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>269</v>
@@ -5563,18 +5563,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>267</v>
@@ -5583,7 +5583,7 @@
         <v>313</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>269</v>
@@ -5592,27 +5592,27 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>267</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>269</v>
@@ -5621,7 +5621,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>93</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>94</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>95</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>122</v>
       </c>
@@ -5738,7 +5738,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J132"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5747,30 +5746,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="7"/>
+    <col min="6" max="8" width="18.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>416</v>
       </c>
@@ -5789,17 +5788,16 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>379</v>
@@ -5808,7 +5806,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5825,7 +5823,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5842,7 +5840,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5859,7 +5857,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5893,7 +5891,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5927,7 +5925,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5961,7 +5959,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5978,7 +5976,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5995,7 +5993,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6012,7 +6010,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6029,7 +6027,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6046,7 +6044,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6063,7 +6061,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6080,7 +6078,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6097,7 +6095,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -6131,7 +6129,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6165,7 +6163,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6182,7 +6180,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6199,7 +6197,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6216,15 +6214,15 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="C29" s="7"/>
     </row>
@@ -6243,7 +6241,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="7" bestFit="1" customWidth="1"/>
@@ -6264,7 +6262,7 @@
     <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>327</v>
       </c>
@@ -6285,7 +6283,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>294</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>295</v>
       </c>
@@ -6325,7 +6323,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>296</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>316</v>
       </c>
@@ -6365,7 +6363,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>314</v>
       </c>
@@ -6385,7 +6383,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>339</v>
       </c>
@@ -6405,7 +6403,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>335</v>
       </c>
@@ -6425,7 +6423,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>320</v>
       </c>
@@ -6445,7 +6443,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>321</v>
       </c>
@@ -6465,7 +6463,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>302</v>
       </c>
@@ -6480,7 +6478,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>384</v>
       </c>
@@ -6495,7 +6493,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>263</v>
       </c>
@@ -6510,7 +6508,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>305</v>
       </c>
@@ -6525,7 +6523,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
@@ -6540,7 +6538,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>311</v>
       </c>
@@ -6554,7 +6552,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>275</v>
       </c>
@@ -6569,7 +6567,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>301</v>
       </c>
@@ -6584,7 +6582,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>312</v>
       </c>
@@ -6599,7 +6597,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>310</v>
       </c>
@@ -6614,7 +6612,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>236</v>
       </c>
@@ -6629,7 +6627,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>297</v>
       </c>
@@ -6644,7 +6642,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>238</v>
       </c>
@@ -6658,7 +6656,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>240</v>
       </c>
@@ -6672,7 +6670,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>307</v>
       </c>
@@ -6686,24 +6684,24 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>394</v>
       </c>
@@ -6783,12 +6781,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>388</v>
       </c>
@@ -6823,16 +6821,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>394</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>395</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>332</v>
       </c>
@@ -6856,7 +6854,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>333</v>
       </c>
@@ -6864,7 +6862,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>336</v>
       </c>
@@ -6872,7 +6870,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>341</v>
       </c>
@@ -6880,7 +6878,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>350</v>
       </c>
@@ -6888,7 +6886,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>342</v>
       </c>
@@ -6896,7 +6894,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>346</v>
       </c>
@@ -6904,7 +6902,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>348</v>
       </c>
@@ -6912,7 +6910,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>344</v>
       </c>
@@ -6920,154 +6918,154 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" s="7" customFormat="1"/>
-    <row r="66" s="7" customFormat="1"/>
-    <row r="67" s="7" customFormat="1"/>
-    <row r="68" s="7" customFormat="1"/>
-    <row r="69" s="7" customFormat="1"/>
-    <row r="70" s="7" customFormat="1"/>
-    <row r="71" s="7" customFormat="1"/>
-    <row r="72" s="7" customFormat="1"/>
-    <row r="73" s="7" customFormat="1"/>
-    <row r="74" s="7" customFormat="1"/>
-    <row r="75" s="7" customFormat="1"/>
-    <row r="76" s="7" customFormat="1"/>
-    <row r="77" s="7" customFormat="1"/>
-    <row r="78" s="7" customFormat="1"/>
-    <row r="79" s="7" customFormat="1"/>
-    <row r="80" s="7" customFormat="1"/>
-    <row r="81" s="7" customFormat="1"/>
-    <row r="82" s="7" customFormat="1"/>
-    <row r="83" s="7" customFormat="1"/>
-    <row r="84" s="7" customFormat="1"/>
-    <row r="85" s="7" customFormat="1"/>
-    <row r="86" s="7" customFormat="1"/>
-    <row r="87" s="7" customFormat="1"/>
-    <row r="88" s="7" customFormat="1"/>
-    <row r="89" s="7" customFormat="1"/>
-    <row r="90" s="7" customFormat="1"/>
-    <row r="91" s="7" customFormat="1"/>
-    <row r="92" s="7" customFormat="1"/>
-    <row r="93" s="7" customFormat="1"/>
-    <row r="94" s="7" customFormat="1"/>
-    <row r="95" s="7" customFormat="1"/>
-    <row r="96" s="7" customFormat="1"/>
-    <row r="97" s="7" customFormat="1"/>
-    <row r="98" s="7" customFormat="1"/>
-    <row r="99" s="7" customFormat="1"/>
-    <row r="100" s="7" customFormat="1"/>
-    <row r="101" s="7" customFormat="1"/>
-    <row r="102" s="7" customFormat="1"/>
-    <row r="103" s="7" customFormat="1"/>
-    <row r="104" s="7" customFormat="1"/>
-    <row r="105" s="7" customFormat="1"/>
-    <row r="106" s="7" customFormat="1"/>
-    <row r="107" s="7" customFormat="1"/>
-    <row r="108" s="7" customFormat="1"/>
-    <row r="109" s="7" customFormat="1"/>
-    <row r="110" s="7" customFormat="1"/>
-    <row r="111" s="7" customFormat="1"/>
-    <row r="112" s="7" customFormat="1"/>
-    <row r="113" s="7" customFormat="1"/>
-    <row r="114" s="7" customFormat="1"/>
-    <row r="115" s="7" customFormat="1"/>
-    <row r="116" s="7" customFormat="1"/>
-    <row r="117" s="7" customFormat="1"/>
-    <row r="118" s="7" customFormat="1"/>
-    <row r="119" s="7" customFormat="1"/>
-    <row r="120" s="7" customFormat="1"/>
-    <row r="121" s="7" customFormat="1"/>
-    <row r="122" s="7" customFormat="1"/>
-    <row r="123" s="7" customFormat="1"/>
-    <row r="124" s="7" customFormat="1"/>
-    <row r="125" s="7" customFormat="1"/>
-    <row r="126" s="7" customFormat="1"/>
-    <row r="127" s="7" customFormat="1"/>
-    <row r="128" s="7" customFormat="1"/>
-    <row r="129" s="7" customFormat="1"/>
-    <row r="130" s="7" customFormat="1"/>
-    <row r="131" s="7" customFormat="1"/>
+    <row r="65" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7081,7 +7079,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7094,7 +7092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7109,19 +7107,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>
